--- a/WFP.ICT.Web/Templates/Tracking1.xlsx
+++ b/WFP.ICT.Web/Templates/Tracking1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>URLS</t>
   </si>
@@ -715,20 +715,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,9 +816,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -902,17 +887,38 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
@@ -920,6 +926,18 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
@@ -929,44 +947,11 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,7 +1019,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1084,7 +1069,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,7 +1119,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,1604 +1475,1616 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="42" x14ac:dyDescent="0.65">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="62"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="81" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="57"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="99" t="s">
+    <row r="7" spans="1:10" s="16" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54" t="s">
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56">
+      <c r="I8" s="50"/>
+      <c r="J8" s="51">
         <v>2665</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
+    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
       <c r="B9" s="98"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="57">
+      <c r="I9" s="50"/>
+      <c r="J9" s="52">
         <v>42901</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
+    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87"/>
       <c r="B10" s="98"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54" t="s">
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="57">
+      <c r="I10" s="50"/>
+      <c r="J10" s="52">
         <v>42901</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="49" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="22">
         <v>0.98360000000000003</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="39" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41" t="s">
+      <c r="G14" s="36"/>
+      <c r="H14" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="50"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="23">
         <v>100000</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="43" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="44" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="50"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="23">
         <v>98360</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="101"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="101"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="48"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="22"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="48"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="48"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A22" s="23"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="28">
         <v>0.17513000000000001</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="48"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A23" s="23"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="23">
         <v>17513</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="48"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="29">
         <v>2619</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="30">
         <v>2.6190000000000001E-2</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="30">
         <v>0.14954605150459657</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59">
+      <c r="A29" s="54">
         <v>27</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="54">
         <v>3</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="100"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="32">
         <v>1340</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
-      <c r="B38" s="31" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="33">
         <v>1279</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" ht="42" x14ac:dyDescent="0.65">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="81" t="s">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="76" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="1" t="s">
+      <c r="A73" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="3">
+      <c r="I73" s="50"/>
+      <c r="J73" s="51">
         <v>2665</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="1" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="98"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="98"/>
+      <c r="H74" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="4">
+      <c r="I74" s="50"/>
+      <c r="J74" s="52">
         <v>42901</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="1" t="s">
+      <c r="A75" s="87"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="4">
+      <c r="I75" s="50"/>
+      <c r="J75" s="52">
         <v>42901</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="12"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="19"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="15"/>
     </row>
     <row r="79" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="93" t="s">
+      <c r="A80" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="93"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="93"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="71" t="s">
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="90"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G80" s="72" t="s">
+      <c r="G80" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="H80" s="72" t="s">
+      <c r="H80" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I80" s="71" t="s">
+      <c r="I80" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J80" s="70"/>
+      <c r="J80" s="65"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="67"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="68"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="63"/>
     </row>
     <row r="82" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="91"/>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="J82" s="7"/>
+      <c r="A82" s="92"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="82"/>
-      <c r="B83" s="83"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J83" s="7"/>
+      <c r="A83" s="84"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="84"/>
-      <c r="B84" s="85"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J84" s="7"/>
+      <c r="A84" s="82"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="82"/>
-      <c r="B85" s="83"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J85" s="7"/>
+      <c r="A85" s="84"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="84"/>
-      <c r="B86" s="85"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J86" s="7"/>
+      <c r="A86" s="82"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="82"/>
-      <c r="B87" s="83"/>
-      <c r="C87" s="83"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J87" s="7"/>
+      <c r="A87" s="84"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
-      <c r="B88" s="85"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J88" s="7"/>
+      <c r="A88" s="82"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="82"/>
-      <c r="B89" s="83"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J89" s="7"/>
+      <c r="A89" s="84"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J90" s="7"/>
+      <c r="A90" s="82"/>
+      <c r="B90" s="83"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="82"/>
-      <c r="B91" s="83"/>
-      <c r="C91" s="83"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J91" s="7"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="7"/>
+      <c r="A92" s="82"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="82"/>
-      <c r="B93" s="83"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="J93" s="7"/>
+      <c r="A93" s="84"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="84"/>
-      <c r="B94" s="85"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J94" s="7"/>
+      <c r="A94" s="82"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="88"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="89"/>
-      <c r="E95" s="90"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J95" s="7"/>
+      <c r="A95" s="94"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="95"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="84"/>
-      <c r="B96" s="85"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J96" s="7"/>
+      <c r="A96" s="82"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="82"/>
-      <c r="B97" s="83"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J97" s="7"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="84"/>
-      <c r="B98" s="85"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="J98" s="7"/>
+      <c r="A98" s="82"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="86"/>
-      <c r="B99" s="87"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="79"/>
-      <c r="H99" s="79"/>
-      <c r="I99" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="J99" s="7"/>
+      <c r="A99" s="88"/>
+      <c r="B99" s="89"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="74"/>
+      <c r="H99" s="74"/>
+      <c r="I99" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="91"/>
-      <c r="B100" s="92"/>
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
-      <c r="I100" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="J100" s="7"/>
+      <c r="A100" s="92"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="93"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="82"/>
-      <c r="B101" s="83"/>
-      <c r="C101" s="83"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J101" s="7"/>
+      <c r="A101" s="84"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="84"/>
-      <c r="B102" s="85"/>
-      <c r="C102" s="85"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J102" s="7"/>
+      <c r="A102" s="82"/>
+      <c r="B102" s="83"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="82"/>
-      <c r="B103" s="83"/>
-      <c r="C103" s="83"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J103" s="7"/>
+      <c r="A103" s="84"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="84"/>
-      <c r="B104" s="85"/>
-      <c r="C104" s="85"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="65"/>
-      <c r="I104" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J104" s="7"/>
+      <c r="A104" s="82"/>
+      <c r="B104" s="83"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="82"/>
-      <c r="B105" s="83"/>
-      <c r="C105" s="83"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J105" s="7"/>
+      <c r="A105" s="84"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="84"/>
-      <c r="B106" s="85"/>
-      <c r="C106" s="85"/>
-      <c r="D106" s="85"/>
-      <c r="E106" s="85"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J106" s="7"/>
+      <c r="A106" s="82"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="82"/>
-      <c r="B107" s="83"/>
-      <c r="C107" s="83"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="66"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J107" s="7"/>
+      <c r="A107" s="84"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="61"/>
+      <c r="I107" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="84"/>
-      <c r="B108" s="85"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J108" s="7"/>
+      <c r="A108" s="82"/>
+      <c r="B108" s="83"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="82"/>
-      <c r="B109" s="83"/>
-      <c r="C109" s="83"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J109" s="7"/>
+      <c r="A109" s="84"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="85"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="84"/>
-      <c r="B110" s="85"/>
-      <c r="C110" s="85"/>
-      <c r="D110" s="85"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="J110" s="7"/>
+      <c r="A110" s="82"/>
+      <c r="B110" s="83"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="82"/>
-      <c r="B111" s="83"/>
-      <c r="C111" s="83"/>
-      <c r="D111" s="83"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="J111" s="7"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="84"/>
-      <c r="B112" s="85"/>
-      <c r="C112" s="85"/>
-      <c r="D112" s="85"/>
-      <c r="E112" s="85"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J112" s="7"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="83"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="60"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="88"/>
-      <c r="B113" s="89"/>
-      <c r="C113" s="89"/>
-      <c r="D113" s="89"/>
-      <c r="E113" s="90"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J113" s="7"/>
+      <c r="A113" s="94"/>
+      <c r="B113" s="95"/>
+      <c r="C113" s="95"/>
+      <c r="D113" s="95"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="84"/>
-      <c r="B114" s="85"/>
-      <c r="C114" s="85"/>
-      <c r="D114" s="85"/>
-      <c r="E114" s="85"/>
-      <c r="F114" s="65"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
-      <c r="I114" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J114" s="7"/>
+      <c r="A114" s="82"/>
+      <c r="B114" s="83"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="82"/>
-      <c r="B115" s="83"/>
-      <c r="C115" s="83"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J115" s="7"/>
+      <c r="A115" s="84"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="61"/>
+      <c r="I115" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="84"/>
-      <c r="B116" s="85"/>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="J116" s="7"/>
+      <c r="A116" s="82"/>
+      <c r="B116" s="83"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="60"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="60"/>
+      <c r="I116" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="86"/>
-      <c r="B117" s="87"/>
-      <c r="C117" s="87"/>
-      <c r="D117" s="87"/>
-      <c r="E117" s="87"/>
-      <c r="F117" s="79"/>
-      <c r="G117" s="79"/>
-      <c r="H117" s="79"/>
-      <c r="I117" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="J117" s="7"/>
+      <c r="A117" s="88"/>
+      <c r="B117" s="89"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="89"/>
+      <c r="E117" s="89"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="74"/>
+      <c r="I117" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="J117" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
+  <mergeCells count="46">
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A98:E98"/>
     <mergeCell ref="A99:E99"/>
@@ -3104,24 +3101,18 @@
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:G75"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
